--- a/tabular/locus/ebv-locus-data.xlsx
+++ b/tabular/locus/ebv-locus-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA-ve/Bornaviridae-GLUE/tabular/locus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD0EAF22-5129-E247-8611-5B3F468A2966}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2F1C91-FBAB-674E-BD0F-D26C505EC424}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="460" windowWidth="27680" windowHeight="17040"/>
+    <workbookView xWindow="1040" yWindow="460" windowWidth="27680" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="query_result" sheetId="1" r:id="rId1"/>
@@ -6958,7 +6958,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -7814,16 +7814,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y865"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A844" workbookViewId="0">
       <selection activeCell="Q873" sqref="Q873"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="4"/>
+    <col min="2" max="2" width="33" customWidth="1"/>
     <col min="13" max="13" width="6.1640625" customWidth="1"/>
   </cols>
   <sheetData>
